--- a/manejo_reportes/SOL/ASIGNACIONES.xlsx
+++ b/manejo_reportes/SOL/ASIGNACIONES.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\report_download\manejo_reportes\SOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F09E7-5219-41FA-9163-C99D6F1086E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9780A72-09B2-418C-B2DC-A78C5E91F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{B1FF4C01-0A08-4889-A757-60BE544534DB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{B1FF4C01-0A08-4889-A757-60BE544534DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONSOLIDADO_SOL_X_EVAL" sheetId="20" r:id="rId1"/>
+    <sheet name="CONSOLIDADO_SOL_X_EVAL" sheetId="21" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="12" r:id="rId2"/>
     <sheet name="IDENTIFICADOS" sheetId="1" r:id="rId3"/>
     <sheet name="REPORTADO_SIM" sheetId="2" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="174">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -60,12 +60,6 @@
     <t>LM240388149</t>
   </si>
   <si>
-    <t>LM240387402</t>
-  </si>
-  <si>
-    <t>LM240387184</t>
-  </si>
-  <si>
     <t>LM240387180</t>
   </si>
   <si>
@@ -108,21 +102,12 @@
     <t>Zumarán Calcín, Karen Pamela</t>
   </si>
   <si>
-    <t>LM240382729</t>
-  </si>
-  <si>
-    <t>LM240382595</t>
-  </si>
-  <si>
     <t>LM240381505</t>
   </si>
   <si>
     <t>LM240381205</t>
   </si>
   <si>
-    <t>LM240379448</t>
-  </si>
-  <si>
     <t>LM240379091</t>
   </si>
   <si>
@@ -135,21 +120,9 @@
     <t>LM240374599</t>
   </si>
   <si>
-    <t>LM240371714</t>
-  </si>
-  <si>
-    <t>LM240371086</t>
-  </si>
-  <si>
     <t>LM240368874</t>
   </si>
   <si>
-    <t>LM240368739</t>
-  </si>
-  <si>
-    <t>LM240365349</t>
-  </si>
-  <si>
     <t>LM240359910</t>
   </si>
   <si>
@@ -243,45 +216,18 @@
     <t>MR200017477</t>
   </si>
   <si>
-    <t>LM240393781</t>
-  </si>
-  <si>
     <t>LM240393313</t>
   </si>
   <si>
-    <t>LM240392429</t>
-  </si>
-  <si>
     <t>LM240392425</t>
   </si>
   <si>
-    <t>LM240392365</t>
-  </si>
-  <si>
-    <t>LM240392230</t>
-  </si>
-  <si>
-    <t>LM240392213</t>
-  </si>
-  <si>
-    <t>LM240392200</t>
-  </si>
-  <si>
-    <t>LM240392127</t>
-  </si>
-  <si>
     <t>LM240391862</t>
   </si>
   <si>
     <t>LM240391845</t>
   </si>
   <si>
-    <t>LM240391638</t>
-  </si>
-  <si>
-    <t>LM240391335</t>
-  </si>
-  <si>
     <t>LM240390664</t>
   </si>
   <si>
@@ -297,162 +243,30 @@
     <t>LM240388981</t>
   </si>
   <si>
-    <t>LM240395970</t>
-  </si>
-  <si>
     <t>LM240395954</t>
   </si>
   <si>
-    <t>LM240395938</t>
-  </si>
-  <si>
     <t>LM240395900</t>
   </si>
   <si>
     <t>LM240395886</t>
   </si>
   <si>
-    <t>LM240395717</t>
-  </si>
-  <si>
-    <t>LM240395671</t>
-  </si>
-  <si>
-    <t>LM240395623</t>
-  </si>
-  <si>
-    <t>LM240395587</t>
-  </si>
-  <si>
-    <t>LM240395574</t>
-  </si>
-  <si>
-    <t>LM240395487</t>
-  </si>
-  <si>
     <t>LM240395460</t>
   </si>
   <si>
-    <t>LM240395370</t>
-  </si>
-  <si>
-    <t>LM240395368</t>
-  </si>
-  <si>
     <t>LM240395365</t>
   </si>
   <si>
-    <t>LM240395363</t>
-  </si>
-  <si>
     <t>LM240395362</t>
   </si>
   <si>
-    <t>LM240395359</t>
-  </si>
-  <si>
-    <t>LM240395358</t>
-  </si>
-  <si>
-    <t>LM240395356</t>
-  </si>
-  <si>
-    <t>LM240395355</t>
-  </si>
-  <si>
-    <t>LM240395353</t>
-  </si>
-  <si>
-    <t>LM240395351</t>
-  </si>
-  <si>
-    <t>LM240395350</t>
-  </si>
-  <si>
-    <t>LM240395347</t>
-  </si>
-  <si>
-    <t>LM240395345</t>
-  </si>
-  <si>
-    <t>LM240395344</t>
-  </si>
-  <si>
-    <t>LM240395340</t>
-  </si>
-  <si>
-    <t>LM240395335</t>
-  </si>
-  <si>
-    <t>LM240395331</t>
-  </si>
-  <si>
-    <t>LM240395329</t>
-  </si>
-  <si>
-    <t>LM240395328</t>
-  </si>
-  <si>
-    <t>LM240395326</t>
-  </si>
-  <si>
-    <t>LM240395325</t>
-  </si>
-  <si>
-    <t>LM240395324</t>
-  </si>
-  <si>
-    <t>LM240395320</t>
-  </si>
-  <si>
-    <t>LM240395317</t>
-  </si>
-  <si>
-    <t>LM240395315</t>
-  </si>
-  <si>
-    <t>LM240395313</t>
-  </si>
-  <si>
-    <t>LM240395311</t>
-  </si>
-  <si>
-    <t>LM240395310</t>
-  </si>
-  <si>
-    <t>LM240395308</t>
-  </si>
-  <si>
-    <t>LM240395303</t>
-  </si>
-  <si>
-    <t>LM240395302</t>
-  </si>
-  <si>
-    <t>LM240395299</t>
-  </si>
-  <si>
-    <t>LM240395296</t>
-  </si>
-  <si>
-    <t>LM240395289</t>
-  </si>
-  <si>
-    <t>LM240394903</t>
-  </si>
-  <si>
-    <t>LM240394525</t>
-  </si>
-  <si>
     <t>LM240394477</t>
   </si>
   <si>
     <t>LM240396851</t>
   </si>
   <si>
-    <t>LM240396527</t>
-  </si>
-  <si>
     <t>LM240396483</t>
   </si>
   <si>
@@ -483,15 +297,6 @@
     <t>LM240395239</t>
   </si>
   <si>
-    <t>LM240395051</t>
-  </si>
-  <si>
-    <t>LM240394937</t>
-  </si>
-  <si>
-    <t>LM240394893</t>
-  </si>
-  <si>
     <t>LM240394858</t>
   </si>
   <si>
@@ -504,30 +309,6 @@
     <t>LM240394737</t>
   </si>
   <si>
-    <t>LM240399414</t>
-  </si>
-  <si>
-    <t>LM240399312</t>
-  </si>
-  <si>
-    <t>LM240399283</t>
-  </si>
-  <si>
-    <t>LM240399246</t>
-  </si>
-  <si>
-    <t>LM240399202</t>
-  </si>
-  <si>
-    <t>LM240399120</t>
-  </si>
-  <si>
-    <t>LM240398146</t>
-  </si>
-  <si>
-    <t>LM240398130</t>
-  </si>
-  <si>
     <t>LM240398030</t>
   </si>
   <si>
@@ -639,9 +420,6 @@
     <t>LM240401041</t>
   </si>
   <si>
-    <t>LM240401021</t>
-  </si>
-  <si>
     <t>LM240400955</t>
   </si>
   <si>
@@ -651,12 +429,6 @@
     <t>LM240400882</t>
   </si>
   <si>
-    <t>LM240400799</t>
-  </si>
-  <si>
-    <t>LM240400769</t>
-  </si>
-  <si>
     <t>LM240400674</t>
   </si>
   <si>
@@ -669,12 +441,6 @@
     <t>LM240400431</t>
   </si>
   <si>
-    <t>LM240400339</t>
-  </si>
-  <si>
-    <t>LM240400315</t>
-  </si>
-  <si>
     <t>LM240400314</t>
   </si>
   <si>
@@ -687,13 +453,112 @@
     <t>LM240399055</t>
   </si>
   <si>
-    <t>LM240398885</t>
-  </si>
-  <si>
     <t>LM240398848</t>
   </si>
   <si>
-    <t>LM240398817</t>
+    <t>LM240405550</t>
+  </si>
+  <si>
+    <t>LM240405469</t>
+  </si>
+  <si>
+    <t>LM240405464</t>
+  </si>
+  <si>
+    <t>LM240405455</t>
+  </si>
+  <si>
+    <t>LM240405441</t>
+  </si>
+  <si>
+    <t>LM240405241</t>
+  </si>
+  <si>
+    <t>LM240405236</t>
+  </si>
+  <si>
+    <t>LM240405226</t>
+  </si>
+  <si>
+    <t>LM240405057</t>
+  </si>
+  <si>
+    <t>LM240405030</t>
+  </si>
+  <si>
+    <t>LM240404932</t>
+  </si>
+  <si>
+    <t>LM240404923</t>
+  </si>
+  <si>
+    <t>LM240404893</t>
+  </si>
+  <si>
+    <t>LM240404850</t>
+  </si>
+  <si>
+    <t>LM240404841</t>
+  </si>
+  <si>
+    <t>LM240404644</t>
+  </si>
+  <si>
+    <t>LM240404300</t>
+  </si>
+  <si>
+    <t>LM240404179</t>
+  </si>
+  <si>
+    <t>LM240403730</t>
+  </si>
+  <si>
+    <t>LM240403728</t>
+  </si>
+  <si>
+    <t>LM240403708</t>
+  </si>
+  <si>
+    <t>LM240403704</t>
+  </si>
+  <si>
+    <t>LM240403690</t>
+  </si>
+  <si>
+    <t>LM240403663</t>
+  </si>
+  <si>
+    <t>LM240403601</t>
+  </si>
+  <si>
+    <t>LM240403571</t>
+  </si>
+  <si>
+    <t>LM240403536</t>
+  </si>
+  <si>
+    <t>LM240403283</t>
+  </si>
+  <si>
+    <t>LM240403183</t>
+  </si>
+  <si>
+    <t>LM240403121</t>
+  </si>
+  <si>
+    <t>LM240403082</t>
+  </si>
+  <si>
+    <t>LM240402933</t>
+  </si>
+  <si>
+    <t>LM240402862</t>
+  </si>
+  <si>
+    <t>LM240402808</t>
+  </si>
+  <si>
+    <t>LM240402634</t>
   </si>
 </sst>
 </file>
@@ -1346,11 +1211,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30659FCE-E882-4645-9F38-C1D2C3A7029D}" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B210" totalsRowShown="0">
-  <autoFilter ref="A1:B210" xr:uid="{30659FCE-E882-4645-9F38-C1D2C3A7029D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BDCAB83-BAE8-406D-BF11-437D812151DF}" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B165" totalsRowShown="0">
+  <autoFilter ref="A1:B165" xr:uid="{6BDCAB83-BAE8-406D-BF11-437D812151DF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D77B172D-746F-4EE0-9DA0-6B1931CC017B}" name="EXPEDIENTE"/>
-    <tableColumn id="2" xr3:uid="{6B0FD434-F75B-4586-AFE8-F0D4255A7A5A}" name="EVALUADOR"/>
+    <tableColumn id="1" xr3:uid="{51335B94-7F37-4DC0-A3DB-BDDC26E8BA94}" name="EXPEDIENTE"/>
+    <tableColumn id="2" xr3:uid="{608E5451-89CB-45C5-B5DD-D5E5537D610B}" name="EVALUADOR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1674,8 +1539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528CB728-0153-48B6-B9CA-A83FCFD114E9}">
-  <dimension ref="A1:B210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A08ED6A-D530-46FE-9665-7239CC23D91E}">
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1703,591 +1568,591 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -2295,7 +2160,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -2303,7 +2168,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -2311,7 +2176,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -2319,15 +2184,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -2335,7 +2200,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -2343,7 +2208,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -2351,511 +2216,511 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -2863,7 +2728,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -2871,15 +2736,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -2887,7 +2752,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
@@ -2895,7 +2760,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -2903,15 +2768,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -2919,7 +2784,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -2927,7 +2792,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -2935,7 +2800,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -2943,426 +2808,66 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>24</v>
-      </c>
-      <c r="B168" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>26</v>
-      </c>
-      <c r="B170" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>27</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>28</v>
-      </c>
-      <c r="B172" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>29</v>
-      </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>30</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>31</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>32</v>
-      </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>33</v>
-      </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>34</v>
-      </c>
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>35</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>36</v>
-      </c>
-      <c r="B180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>37</v>
-      </c>
-      <c r="B181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>38</v>
-      </c>
-      <c r="B182" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>39</v>
-      </c>
-      <c r="B183" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>40</v>
-      </c>
-      <c r="B184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>41</v>
-      </c>
-      <c r="B185" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>42</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>43</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>44</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>45</v>
-      </c>
-      <c r="B189" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>46</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>47</v>
-      </c>
-      <c r="B191" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>48</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>49</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>50</v>
-      </c>
-      <c r="B194" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>51</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>53</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>54</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>55</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
         <v>56</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>57</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>58</v>
-      </c>
-      <c r="B202" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>59</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>60</v>
-      </c>
-      <c r="B204" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>61</v>
-      </c>
-      <c r="B205" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>62</v>
-      </c>
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>63</v>
-      </c>
-      <c r="B207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>64</v>
-      </c>
-      <c r="B208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>66</v>
-      </c>
-      <c r="B209" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>67</v>
-      </c>
-      <c r="B210" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +2930,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418B94BA-4EB1-4C3C-A4AF-81071572DC18}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
@@ -3447,591 +2952,591 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -4039,7 +3544,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -4047,7 +3552,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -4055,7 +3560,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -4063,15 +3568,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -4079,7 +3584,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -4087,7 +3592,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -4095,511 +3600,511 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -4607,7 +4112,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -4615,15 +4120,15 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -4631,7 +4136,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -4639,7 +4144,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
@@ -4647,15 +4152,15 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -4663,7 +4168,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -4671,7 +4176,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -4679,7 +4184,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -4687,426 +4192,66 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>27</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>29</v>
-      </c>
-      <c r="B172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>30</v>
-      </c>
-      <c r="B173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>33</v>
-      </c>
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>34</v>
-      </c>
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>35</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>36</v>
-      </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>37</v>
-      </c>
-      <c r="B180" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>38</v>
-      </c>
-      <c r="B181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>40</v>
-      </c>
-      <c r="B183" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>41</v>
-      </c>
-      <c r="B184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>42</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>43</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>45</v>
-      </c>
-      <c r="B188" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>46</v>
-      </c>
-      <c r="B189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>47</v>
-      </c>
-      <c r="B190" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>48</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>49</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>50</v>
-      </c>
-      <c r="B193" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>51</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>53</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>54</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>55</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
         <v>56</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>57</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>58</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>59</v>
-      </c>
-      <c r="B202" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>60</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>63</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>64</v>
-      </c>
-      <c r="B207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>66</v>
-      </c>
-      <c r="B208" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>67</v>
-      </c>
-      <c r="B209" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/manejo_reportes/SOL/ASIGNACIONES.xlsx
+++ b/manejo_reportes/SOL/ASIGNACIONES.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\report_download\manejo_reportes\SOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9780A72-09B2-418C-B2DC-A78C5E91F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FB5A2-7A7A-45F5-943C-EE97605A1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{B1FF4C01-0A08-4889-A757-60BE544534DB}"/>
+    <workbookView xWindow="3345" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{B1FF4C01-0A08-4889-A757-60BE544534DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONSOLIDADO_SOL_X_EVAL" sheetId="21" r:id="rId1"/>
+    <sheet name="CONSOLIDADO_SOL_X_EVAL" sheetId="22" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="12" r:id="rId2"/>
     <sheet name="IDENTIFICADOS" sheetId="1" r:id="rId3"/>
     <sheet name="REPORTADO_SIM" sheetId="2" r:id="rId4"/>
@@ -1211,11 +1211,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BDCAB83-BAE8-406D-BF11-437D812151DF}" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B165" totalsRowShown="0">
-  <autoFilter ref="A1:B165" xr:uid="{6BDCAB83-BAE8-406D-BF11-437D812151DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E3666C35-69C7-477C-B36E-6DF16961971F}" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B165" totalsRowShown="0">
+  <autoFilter ref="A1:B165" xr:uid="{E3666C35-69C7-477C-B36E-6DF16961971F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{51335B94-7F37-4DC0-A3DB-BDDC26E8BA94}" name="EXPEDIENTE"/>
-    <tableColumn id="2" xr3:uid="{608E5451-89CB-45C5-B5DD-D5E5537D610B}" name="EVALUADOR"/>
+    <tableColumn id="1" xr3:uid="{3C4FF862-A0DB-4992-A318-F9348A06DEA4}" name="EXPEDIENTE"/>
+    <tableColumn id="2" xr3:uid="{461A49FD-6537-485A-A783-F64459BA4D4D}" name="EVALUADOR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1539,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A08ED6A-D530-46FE-9665-7239CC23D91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5D9D4F-6B22-4300-A55B-3775A51FF8F3}">
   <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/manejo_reportes/SOL/ASIGNACIONES.xlsx
+++ b/manejo_reportes/SOL/ASIGNACIONES.xlsx
@@ -745,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B152" headerRowCount="1">
-  <autoFilter ref="A1:B152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B150" headerRowCount="1">
+  <autoFilter ref="A1:B150"/>
   <tableColumns count="2">
     <tableColumn id="1" name="EXPEDIENTE"/>
     <tableColumn id="2" name="EVALUADOR"/>
@@ -1124,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
@@ -2207,43 +2207,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LM240395365</t>
+          <t>LM240395293</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LM240395362</t>
+          <t>LM240395292</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LM240395293</t>
+          <t>LM240395239</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LM240395292</t>
+          <t>LM240394858</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2255,19 +2255,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LM240395239</t>
+          <t>LM240394790</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LM240394858</t>
+          <t>LM240394737</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2279,7 +2279,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LM240394790</t>
+          <t>LM240394477</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2291,31 +2291,31 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LM240394737</t>
+          <t>LM240393313</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LM240394477</t>
+          <t>LM240392425</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LM240393313</t>
+          <t>LM240391862</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LM240392425</t>
+          <t>LM240391845</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2339,31 +2339,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LM240391862</t>
+          <t>LM240390664</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LM240391845</t>
+          <t>LM240390472</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LM240390664</t>
+          <t>LM240389928</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2375,7 +2375,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LM240390472</t>
+          <t>LM240389698</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2387,7 +2387,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LM240389928</t>
+          <t>LM240388981</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2399,19 +2399,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LM240389698</t>
+          <t>LM240388149</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LM240388981</t>
+          <t>LM240387180</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2423,43 +2423,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LM240388149</t>
+          <t>LM240386807</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LM240387180</t>
+          <t>LM240386537</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LM240386807</t>
+          <t>LM240386069</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LM240386537</t>
+          <t>LM240386050</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LM240386069</t>
+          <t>LM240386038</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2483,7 +2483,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LM240386050</t>
+          <t>LM240386022</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2495,7 +2495,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LM240386038</t>
+          <t>LM240385984</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2507,7 +2507,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LM240386022</t>
+          <t>LM240385869</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2519,7 +2519,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LM240385984</t>
+          <t>LM240385412</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LM240385869</t>
+          <t>LM240383874</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LM240385412</t>
+          <t>LM240381505</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2555,103 +2555,103 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LM240383874</t>
+          <t>LM240381205</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LM240381505</t>
+          <t>LM240379091</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LM240381205</t>
+          <t>LM240375919</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LM240379091</t>
+          <t>LM240374606</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LM240375919</t>
+          <t>LM240374599</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LM240374606</t>
+          <t>LM240368874</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LM240374599</t>
+          <t>LM240359910</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LM240368874</t>
+          <t>LM240359780</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LM240359910</t>
+          <t>LM240359217</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LM240359780</t>
+          <t>LM240355606</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2675,7 +2675,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LM240359217</t>
+          <t>LM240350484</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2687,31 +2687,31 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LM240355606</t>
+          <t>LM240348853</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LM240350484</t>
+          <t>LM240347630</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>LM240348853</t>
+          <t>LM240346507</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2723,19 +2723,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>LM240347630</t>
+          <t>LM240342718</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LM240346507</t>
+          <t>LM240341397</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LM240342718</t>
+          <t>LM240339264</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LM240341397</t>
+          <t>LM240334846</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2771,31 +2771,31 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LM240339264</t>
+          <t>LM240334427</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LM240334846</t>
+          <t>LM240331753</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LM240334427</t>
+          <t>LM240316588</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2807,19 +2807,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LM240331753</t>
+          <t>LM240312815</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LM240316588</t>
+          <t>LM240302177</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LM240312815</t>
+          <t>LM240300939</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2843,7 +2843,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LM240302177</t>
+          <t>LM240272989</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LM240300939</t>
+          <t>LM240272254</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2867,19 +2867,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LM240272989</t>
+          <t>LM240264765</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LM240272254</t>
+          <t>LM240253934</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2891,76 +2891,41 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LM240264765</t>
+          <t>LM240250971</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LM240253934</t>
+          <t>MR200017499</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Antón Paredes, María Teresa</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LM240250971</t>
+          <t>MR200017477</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MR200017499</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
           <t>Antón Paredes, María Teresa</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>MR200017477</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Antón Paredes, María Teresa</t>
-        </is>
-      </c>
-    </row>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
+    <row r="150"/>
+    <row r="151"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2975,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4066,43 +4031,43 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LM240395365</t>
+          <t>LM240395293</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LM240395362</t>
+          <t>LM240395292</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LM240395293</t>
+          <t>LM240395239</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LM240395292</t>
+          <t>LM240394858</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4114,19 +4079,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LM240395239</t>
+          <t>LM240394790</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LM240394858</t>
+          <t>LM240394737</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4138,7 +4103,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LM240394790</t>
+          <t>LM240394477</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4150,31 +4115,31 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LM240394737</t>
+          <t>LM240393313</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LM240394477</t>
+          <t>LM240392425</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LM240393313</t>
+          <t>LM240391862</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4186,7 +4151,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LM240392425</t>
+          <t>LM240391845</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4198,31 +4163,31 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LM240391862</t>
+          <t>LM240390664</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LM240391845</t>
+          <t>LM240390472</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LM240390664</t>
+          <t>LM240389928</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4234,7 +4199,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LM240390472</t>
+          <t>LM240389698</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4246,7 +4211,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LM240389928</t>
+          <t>LM240388981</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4258,19 +4223,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LM240389698</t>
+          <t>LM240388149</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LM240388981</t>
+          <t>LM240387180</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4282,43 +4247,43 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LM240388149</t>
+          <t>LM240386807</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LM240387180</t>
+          <t>LM240386537</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LM240386807</t>
+          <t>LM240386069</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LM240386537</t>
+          <t>LM240386050</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4330,7 +4295,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LM240386069</t>
+          <t>LM240386038</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4342,7 +4307,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LM240386050</t>
+          <t>LM240386022</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4354,7 +4319,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LM240386038</t>
+          <t>LM240385984</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4366,7 +4331,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LM240386022</t>
+          <t>LM240385869</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4378,7 +4343,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LM240385984</t>
+          <t>LM240385412</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4390,7 +4355,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LM240385869</t>
+          <t>LM240383874</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4402,7 +4367,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LM240385412</t>
+          <t>LM240381505</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4414,103 +4379,103 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LM240383874</t>
+          <t>LM240381205</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LM240381505</t>
+          <t>LM240379091</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LM240381205</t>
+          <t>LM240375919</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LM240379091</t>
+          <t>LM240374606</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LM240375919</t>
+          <t>LM240374599</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LM240374606</t>
+          <t>LM240368874</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LM240374599</t>
+          <t>LM240359910</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LM240368874</t>
+          <t>LM240359780</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LM240359910</t>
+          <t>LM240359217</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4522,7 +4487,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LM240359780</t>
+          <t>LM240355606</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4534,7 +4499,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LM240359217</t>
+          <t>LM240350484</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4546,31 +4511,31 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LM240355606</t>
+          <t>LM240348853</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>LM240350484</t>
+          <t>LM240347630</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>LM240348853</t>
+          <t>LM240346507</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4582,19 +4547,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LM240347630</t>
+          <t>LM240342718</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LM240346507</t>
+          <t>LM240341397</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4606,7 +4571,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LM240342718</t>
+          <t>LM240339264</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4618,7 +4583,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LM240341397</t>
+          <t>LM240334846</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4630,31 +4595,31 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LM240339264</t>
+          <t>LM240334427</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LM240334846</t>
+          <t>LM240331753</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LM240334427</t>
+          <t>LM240316588</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4666,19 +4631,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LM240331753</t>
+          <t>LM240312815</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LM240316588</t>
+          <t>LM240302177</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4690,7 +4655,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LM240312815</t>
+          <t>LM240300939</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4702,7 +4667,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LM240302177</t>
+          <t>LM240272989</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4714,7 +4679,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LM240300939</t>
+          <t>LM240272254</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4726,19 +4691,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LM240272989</t>
+          <t>LM240264765</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LM240272254</t>
+          <t>LM240253934</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4750,58 +4715,34 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LM240264765</t>
+          <t>LM240250971</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LM240253934</t>
+          <t>MR200017499</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Antón Paredes, María Teresa</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LM240250971</t>
+          <t>MR200017477</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>Loaiza Valdez, Raul</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>MR200017499</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Antón Paredes, María Teresa</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>MR200017477</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
         <is>
           <t>Antón Paredes, María Teresa</t>
         </is>

--- a/manejo_reportes/SOL/ASIGNACIONES.xlsx
+++ b/manejo_reportes/SOL/ASIGNACIONES.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3345" yWindow="3165" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IDENTIFICADOS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REPORTADO_SIM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONSOLIDADO_SOL_X_EVAL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IDENTIFICADOS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="REPORTADO_SIM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CONSOLIDADO_SOL_X_EVAL" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -745,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B150" headerRowCount="1">
-  <autoFilter ref="A1:B150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CONSOLIDADO_SOL_X_EVAL" displayName="CONSOLIDADO_SOL_X_EVAL" ref="A1:B205" headerRowCount="1">
+  <autoFilter ref="A1:B205"/>
   <tableColumns count="2">
     <tableColumn id="1" name="EXPEDIENTE"/>
     <tableColumn id="2" name="EVALUADOR"/>
@@ -1124,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
@@ -1151,43 +1151,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LM240405550</t>
+          <t>LM240410295</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LM240405469</t>
+          <t>LM240410278</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LM240405464</t>
+          <t>LM240410224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LM240405455</t>
+          <t>LM240409991</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1199,19 +1199,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LM240405441</t>
+          <t>LM240409567</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LM240405241</t>
+          <t>LM240409378</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1223,67 +1223,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LM240405236</t>
+          <t>LM240409351</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LM240405226</t>
+          <t>LM240409340</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LM240405057</t>
+          <t>LM240409334</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LM240405030</t>
+          <t>LM240409332</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LM240404932</t>
+          <t>LM240409121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LM240404923</t>
+          <t>LM240409119</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1295,391 +1295,391 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LM240404893</t>
+          <t>LM240409113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LM240404850</t>
+          <t>LM240409107</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LM240404841</t>
+          <t>LM240409102</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LM240404644</t>
+          <t>LM240409093</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LM240404300</t>
+          <t>LM240409087</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LM240404179</t>
+          <t>LM240409080</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LM240403730</t>
+          <t>LM240409076</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LM240403728</t>
+          <t>LM240409070</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LM240403708</t>
+          <t>LM240409058</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LM240403704</t>
+          <t>LM240409045</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LM240403690</t>
+          <t>LM240409038</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LM240403663</t>
+          <t>LM240409029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LM240403601</t>
+          <t>LM240409022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LM240403571</t>
+          <t>LM240409016</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LM240403536</t>
+          <t>LM240409007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LM240403283</t>
+          <t>LM240409002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LM240403183</t>
+          <t>LM240408996</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LM240403121</t>
+          <t>LM240408991</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LM240403082</t>
+          <t>LM240408984</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LM240402933</t>
+          <t>LM240408968</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LM240402862</t>
+          <t>LM240408959</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LM240402808</t>
+          <t>LM240408953</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LM240402634</t>
+          <t>LM240408946</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LM240402141</t>
+          <t>LM240408914</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LM240402140</t>
+          <t>LM240408779</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LM240402138</t>
+          <t>LM240408702</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LM240402137</t>
+          <t>LM240408668</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LM240402135</t>
+          <t>LM240408662</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LM240402133</t>
+          <t>LM240408534</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LM240402132</t>
+          <t>LM240408509</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LM240402131</t>
+          <t>LM240408502</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LM240402127</t>
+          <t>LM240408436</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LM240402124</t>
+          <t>LM240408244</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1691,307 +1691,307 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LM240402123</t>
+          <t>LM240408122</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LM240402119</t>
+          <t>LM240407615</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LM240402118</t>
+          <t>LM240407606</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LM240402116</t>
+          <t>LM240407594</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LM240402111</t>
+          <t>LM240407567</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LM240402109</t>
+          <t>LM240407555</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LM240402107</t>
+          <t>LM240407535</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LM240402105</t>
+          <t>LM240407525</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LM240402103</t>
+          <t>LM240407520</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LM240402102</t>
+          <t>LM240407453</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LM240402099</t>
+          <t>LM240407449</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LM240402096</t>
+          <t>LM240407211</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LM240402095</t>
+          <t>LM240407169</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LM240402091</t>
+          <t>LM240407165</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LM240402090</t>
+          <t>LM240407120</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LM240402089</t>
+          <t>LM240407110</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LM240402088</t>
+          <t>LM240406779</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LM240402086</t>
+          <t>LM240406772</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LM240402077</t>
+          <t>LM240406669</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LM240401581</t>
+          <t>LM240406350</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LM240400955</t>
+          <t>LM240406337</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LM240400943</t>
+          <t>LM240406285</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LM240400882</t>
+          <t>LM240406275</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LM240400674</t>
+          <t>LM240406190</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LM240400636</t>
+          <t>LM240405715</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LM240400619</t>
+          <t>LM240405550</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2003,7 +2003,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LM240400431</t>
+          <t>LM240405469</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2015,7 +2015,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LM240400314</t>
+          <t>LM240405464</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2027,127 +2027,127 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LM240400152</t>
+          <t>LM240405455</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LM240399898</t>
+          <t>LM240405441</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LM240399055</t>
+          <t>LM240405241</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LM240398848</t>
+          <t>LM240405236</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LM240398030</t>
+          <t>LM240405226</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LM240397792</t>
+          <t>LM240405057</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LM240397471</t>
+          <t>LM240405030</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LM240396851</t>
+          <t>LM240404932</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LM240396474</t>
+          <t>LM240404923</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LM240396295</t>
+          <t>LM240404893</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LM240396281</t>
+          <t>LM240404850</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2159,79 +2159,79 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LM240396185</t>
+          <t>LM240404841</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LM240395954</t>
+          <t>LM240404644</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LM240395886</t>
+          <t>LM240404300</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LM240395460</t>
+          <t>LM240404179</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LM240395293</t>
+          <t>LM240403730</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LM240395292</t>
+          <t>LM240403728</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LM240395239</t>
+          <t>LM240403708</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2243,103 +2243,103 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LM240394858</t>
+          <t>LM240403704</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LM240394790</t>
+          <t>LM240403690</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LM240394737</t>
+          <t>LM240403663</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LM240394477</t>
+          <t>LM240403601</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LM240393313</t>
+          <t>LM240403571</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LM240392425</t>
+          <t>LM240403536</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LM240391862</t>
+          <t>LM240403283</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LM240391845</t>
+          <t>LM240403183</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LM240390664</t>
+          <t>LM240403121</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2351,55 +2351,55 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LM240390472</t>
+          <t>LM240403082</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LM240389928</t>
+          <t>LM240402933</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LM240389698</t>
+          <t>LM240402862</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LM240388981</t>
+          <t>LM240402808</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LM240388149</t>
+          <t>LM240402634</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2411,115 +2411,115 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LM240387180</t>
+          <t>LM240402141</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LM240386807</t>
+          <t>LM240402140</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LM240386537</t>
+          <t>LM240402138</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LM240386069</t>
+          <t>LM240402137</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LM240386050</t>
+          <t>LM240402135</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LM240386038</t>
+          <t>LM240402133</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LM240386022</t>
+          <t>LM240402132</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LM240385984</t>
+          <t>LM240402131</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LM240385869</t>
+          <t>LM240402127</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LM240385412</t>
+          <t>LM240402124</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2531,91 +2531,91 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LM240383874</t>
+          <t>LM240402123</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LM240381505</t>
+          <t>LM240402119</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LM240381205</t>
+          <t>LM240402118</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LM240379091</t>
+          <t>LM240402116</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LM240375919</t>
+          <t>LM240402111</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LM240374606</t>
+          <t>LM240402109</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LM240374599</t>
+          <t>LM240402107</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LM240368874</t>
+          <t>LM240402105</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2627,163 +2627,163 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LM240359910</t>
+          <t>LM240402103</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LM240359780</t>
+          <t>LM240402102</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LM240359217</t>
+          <t>LM240402099</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LM240355606</t>
+          <t>LM240402096</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LM240350484</t>
+          <t>LM240402095</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LM240348853</t>
+          <t>LM240402091</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LM240347630</t>
+          <t>LM240402090</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>LM240346507</t>
+          <t>LM240402089</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>LM240342718</t>
+          <t>LM240402088</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LM240341397</t>
+          <t>LM240402086</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LM240339264</t>
+          <t>LM240402077</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LM240334846</t>
+          <t>LM240401581</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LM240334427</t>
+          <t>LM240400955</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LM240331753</t>
+          <t>LM240400943</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2795,31 +2795,31 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LM240316588</t>
+          <t>LM240400882</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LM240312815</t>
+          <t>LM240400674</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LM240302177</t>
+          <t>LM240400431</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LM240300939</t>
+          <t>LM240400314</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2843,19 +2843,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LM240272989</t>
+          <t>LM240400152</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LM240272254</t>
+          <t>LM240399898</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2867,19 +2867,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LM240264765</t>
+          <t>LM240399055</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LM240253934</t>
+          <t>LM240398848</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2891,41 +2891,699 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LM240250971</t>
+          <t>LM240398030</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MR200017499</t>
+          <t>LM240397792</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Antón Paredes, María Teresa</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>LM240397471</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>LM240396851</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>LM240396474</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>LM240396295</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>LM240396281</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>LM240396185</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>LM240395954</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>LM240395460</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>LM240395293</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>LM240395292</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>LM240395239</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>LM240394858</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>LM240394790</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>LM240394737</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>LM240394477</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>LM240393313</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>LM240392425</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>LM240391862</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>LM240391845</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LM240390664</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>LM240389928</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>LM240389698</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>LM240388149</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LM240386807</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>LM240386537</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>LM240386069</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>LM240386050</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>LM240386038</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>LM240386022</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>LM240385984</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>LM240385869</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LM240385412</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>LM240383874</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LM240379091</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>LM240374606</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>LM240374599</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>LM240359910</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>LM240359780</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>LM240350484</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LM240342718</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>LM240341397</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>LM240339264</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>LM240334846</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>LM240334427</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>LM240331753</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>LM240316588</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>LM240312815</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>LM240302177</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>LM240300939</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>LM240272989</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LM240272254</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LM240264765</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>LM240253934</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>LM240250971</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MR200017499</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Antón Paredes, María Teresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
           <t>MR200017477</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Antón Paredes, María Teresa</t>
         </is>
       </c>
     </row>
-    <row r="150"/>
-    <row r="151"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2940,7 +3598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2975,43 +3633,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LM240405550</t>
+          <t>LM240410295</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LM240405469</t>
+          <t>LM240410278</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LM240405464</t>
+          <t>LM240410224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LM240405455</t>
+          <t>LM240409991</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3023,19 +3681,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LM240405441</t>
+          <t>LM240409567</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LM240405241</t>
+          <t>LM240409378</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3047,67 +3705,67 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LM240405236</t>
+          <t>LM240409351</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LM240405226</t>
+          <t>LM240409340</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LM240405057</t>
+          <t>LM240409334</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LM240405030</t>
+          <t>LM240409332</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LM240404932</t>
+          <t>LM240409121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LM240404923</t>
+          <t>LM240409119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3119,391 +3777,391 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LM240404893</t>
+          <t>LM240409113</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LM240404850</t>
+          <t>LM240409107</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LM240404841</t>
+          <t>LM240409102</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LM240404644</t>
+          <t>LM240409093</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LM240404300</t>
+          <t>LM240409087</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LM240404179</t>
+          <t>LM240409080</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LM240403730</t>
+          <t>LM240409076</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LM240403728</t>
+          <t>LM240409070</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LM240403708</t>
+          <t>LM240409058</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LM240403704</t>
+          <t>LM240409045</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LM240403690</t>
+          <t>LM240409038</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LM240403663</t>
+          <t>LM240409029</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LM240403601</t>
+          <t>LM240409022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LM240403571</t>
+          <t>LM240409016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LM240403536</t>
+          <t>LM240409007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LM240403283</t>
+          <t>LM240409002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LM240403183</t>
+          <t>LM240408996</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LM240403121</t>
+          <t>LM240408991</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LM240403082</t>
+          <t>LM240408984</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LM240402933</t>
+          <t>LM240408968</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LM240402862</t>
+          <t>LM240408959</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LM240402808</t>
+          <t>LM240408953</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LM240402634</t>
+          <t>LM240408946</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LM240402141</t>
+          <t>LM240408914</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LM240402140</t>
+          <t>LM240408779</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LM240402138</t>
+          <t>LM240408702</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LM240402137</t>
+          <t>LM240408668</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LM240402135</t>
+          <t>LM240408662</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LM240402133</t>
+          <t>LM240408534</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LM240402132</t>
+          <t>LM240408509</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LM240402131</t>
+          <t>LM240408502</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LM240402127</t>
+          <t>LM240408436</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LM240402124</t>
+          <t>LM240408244</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3515,307 +4173,307 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LM240402123</t>
+          <t>LM240408122</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LM240402119</t>
+          <t>LM240407615</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LM240402118</t>
+          <t>LM240407606</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LM240402116</t>
+          <t>LM240407594</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LM240402111</t>
+          <t>LM240407567</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LM240402109</t>
+          <t>LM240407555</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LM240402107</t>
+          <t>LM240407535</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LM240402105</t>
+          <t>LM240407525</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LM240402103</t>
+          <t>LM240407520</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LM240402102</t>
+          <t>LM240407453</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LM240402099</t>
+          <t>LM240407449</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LM240402096</t>
+          <t>LM240407211</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LM240402095</t>
+          <t>LM240407169</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LM240402091</t>
+          <t>LM240407165</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LM240402090</t>
+          <t>LM240407120</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LM240402089</t>
+          <t>LM240407110</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LM240402088</t>
+          <t>LM240406779</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LM240402086</t>
+          <t>LM240406772</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LM240402077</t>
+          <t>LM240406669</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LM240401581</t>
+          <t>LM240406350</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LM240400955</t>
+          <t>LM240406337</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LM240400943</t>
+          <t>LM240406285</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LM240400882</t>
+          <t>LM240406275</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LM240400674</t>
+          <t>LM240406190</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LM240400636</t>
+          <t>LM240405715</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LM240400619</t>
+          <t>LM240405550</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3827,7 +4485,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LM240400431</t>
+          <t>LM240405469</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3839,7 +4497,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LM240400314</t>
+          <t>LM240405464</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3851,127 +4509,127 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LM240400152</t>
+          <t>LM240405455</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LM240399898</t>
+          <t>LM240405441</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LM240399055</t>
+          <t>LM240405241</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LM240398848</t>
+          <t>LM240405236</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LM240398030</t>
+          <t>LM240405226</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LM240397792</t>
+          <t>LM240405057</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LM240397471</t>
+          <t>LM240405030</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LM240396851</t>
+          <t>LM240404932</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LM240396474</t>
+          <t>LM240404923</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LM240396295</t>
+          <t>LM240404893</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LM240396281</t>
+          <t>LM240404850</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3983,79 +4641,79 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LM240396185</t>
+          <t>LM240404841</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LM240395954</t>
+          <t>LM240404644</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LM240395886</t>
+          <t>LM240404300</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LM240395460</t>
+          <t>LM240404179</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LM240395293</t>
+          <t>LM240403730</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LM240395292</t>
+          <t>LM240403728</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LM240395239</t>
+          <t>LM240403708</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4067,103 +4725,103 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LM240394858</t>
+          <t>LM240403704</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LM240394790</t>
+          <t>LM240403690</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LM240394737</t>
+          <t>LM240403663</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Zumarán Calcín, Karen Pamela</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>LM240394477</t>
+          <t>LM240403601</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Mejia Mercado Nathaly Lourdes</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LM240393313</t>
+          <t>LM240403571</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LM240392425</t>
+          <t>LM240403536</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LM240391862</t>
+          <t>LM240403283</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LM240391845</t>
+          <t>LM240403183</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zumarán Calcín, Karen Pamela</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LM240390664</t>
+          <t>LM240403121</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4175,55 +4833,55 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LM240390472</t>
+          <t>LM240403082</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LM240389928</t>
+          <t>LM240402933</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LM240389698</t>
+          <t>LM240402862</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LM240388981</t>
+          <t>LM240402808</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LM240388149</t>
+          <t>LM240402634</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4235,115 +4893,115 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LM240387180</t>
+          <t>LM240402141</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LM240386807</t>
+          <t>LM240402140</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LM240386537</t>
+          <t>LM240402138</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>LM240386069</t>
+          <t>LM240402137</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LM240386050</t>
+          <t>LM240402135</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>LM240386038</t>
+          <t>LM240402133</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LM240386022</t>
+          <t>LM240402132</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LM240385984</t>
+          <t>LM240402131</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LM240385869</t>
+          <t>LM240402127</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LM240385412</t>
+          <t>LM240402124</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4355,91 +5013,91 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LM240383874</t>
+          <t>LM240402123</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LM240381505</t>
+          <t>LM240402119</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hurtado Lago Briyan Deivi</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LM240381205</t>
+          <t>LM240402118</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LM240379091</t>
+          <t>LM240402116</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LM240375919</t>
+          <t>LM240402111</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LM240374606</t>
+          <t>LM240402109</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LM240374599</t>
+          <t>LM240402107</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LM240368874</t>
+          <t>LM240402105</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4451,163 +5109,163 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>LM240359910</t>
+          <t>LM240402103</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LM240359780</t>
+          <t>LM240402102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LM240359217</t>
+          <t>LM240402099</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LM240355606</t>
+          <t>LM240402096</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LM240350484</t>
+          <t>LM240402095</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LM240348853</t>
+          <t>LM240402091</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>LM240347630</t>
+          <t>LM240402090</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>LM240346507</t>
+          <t>LM240402089</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LM240342718</t>
+          <t>LM240402088</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>LM240341397</t>
+          <t>LM240402086</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Castillo Castillo Jose Marcello</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LM240339264</t>
+          <t>LM240402077</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Paz Araujo, Paola Francesca</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LM240334846</t>
+          <t>LM240401581</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LM240334427</t>
+          <t>LM240400955</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LM240331753</t>
+          <t>LM240400943</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4619,31 +5277,31 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>LM240316588</t>
+          <t>LM240400882</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Hurtado Lago Briyan Deivi</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LM240312815</t>
+          <t>LM240400674</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LM240302177</t>
+          <t>LM240400431</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4655,7 +5313,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LM240300939</t>
+          <t>LM240400314</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4667,19 +5325,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LM240272989</t>
+          <t>LM240400152</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Paz Araujo, Paola Francesca</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LM240272254</t>
+          <t>LM240399898</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4691,19 +5349,19 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LM240264765</t>
+          <t>LM240399055</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Castillo Castillo Jose Marcello</t>
+          <t>Loaiza Valdez, Raul</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LM240253934</t>
+          <t>LM240398848</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4715,34 +5373,694 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LM240250971</t>
+          <t>LM240398030</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Loaiza Valdez, Raul</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MR200017499</t>
+          <t>LM240397792</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Antón Paredes, María Teresa</t>
+          <t>Mejia Mercado Nathaly Lourdes</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>LM240397471</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>LM240396851</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>LM240396474</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>LM240396295</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>LM240396281</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>LM240396185</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>LM240395954</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>LM240395460</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>LM240395293</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>LM240395292</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>LM240395239</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>LM240394858</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>LM240394790</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>LM240394737</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>LM240394477</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mejia Mercado Nathaly Lourdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>LM240393313</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>LM240392425</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>LM240391862</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LM240391845</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Zumarán Calcín, Karen Pamela</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>LM240390664</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>LM240389928</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>LM240389698</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LM240388149</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>LM240386807</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>LM240386537</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>LM240386069</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>LM240386050</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>LM240386038</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>LM240386022</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>LM240385984</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LM240385869</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>LM240385412</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LM240383874</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Hurtado Lago Briyan Deivi</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>LM240379091</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>LM240374606</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>LM240374599</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>LM240359910</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>LM240359780</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LM240350484</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>LM240342718</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>LM240341397</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>LM240339264</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>LM240334846</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>LM240334427</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>LM240331753</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Paz Araujo, Paola Francesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>LM240316588</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>LM240312815</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>LM240302177</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>LM240300939</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LM240272989</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LM240272254</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>LM240264765</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Castillo Castillo Jose Marcello</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>LM240253934</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>LM240250971</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Loaiza Valdez, Raul</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>MR200017499</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Antón Paredes, María Teresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
           <t>MR200017477</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Antón Paredes, María Teresa</t>
         </is>
